--- a/Code/Overlap/Output Files/Al_Bi_Ba_36_Analysis.xlsx
+++ b/Code/Overlap/Output Files/Al_Bi_Ba_36_Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Overlap\Output Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{751B0E14-3121-45E4-9D1D-856A486EA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB65D57-0C96-4CEB-B510-400B452C5B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Al_Bi_Ba_36" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -798,16 +809,16 @@
     <t>RETRY 2</t>
   </si>
   <si>
-    <t>G17+G18(+G15)</t>
+    <t>Not included</t>
   </si>
   <si>
-    <t>Not included</t>
+    <t>G17+G18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1650,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN181"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
@@ -23763,11 +23774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23807,7 +23818,7 @@
         <v>2155511.8000000007</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -23917,7 +23928,7 @@
         <v>525312</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -24285,10 +24296,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
@@ -34061,7 +34072,7 @@
         <v>462000</v>
       </c>
       <c r="C183">
-        <f t="shared" ref="C183:L183" si="18">SUM(C2:C181)/5</f>
+        <f t="shared" ref="C183:J183" si="18">SUM(C2:C181)/5</f>
         <v>4766420.8</v>
       </c>
       <c r="D183">
